--- a/dados/tudo.xlsx
+++ b/dados/tudo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teste\Documents\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teste\Documents\estudo\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED499982-7505-4F2A-958C-8706DE909D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D107C4-AED1-4D1D-82B4-33A6BC1AB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22D8A814-D108-4F09-8F57-A33D5D444D94}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{22D8A814-D108-4F09-8F57-A33D5D444D94}"/>
   </bookViews>
   <sheets>
     <sheet name="Recepção" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Paineis" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1607,29 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1651,6 +1628,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -2016,14 +2015,14 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -2378,16 +2377,16 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -2811,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06DF318-94FE-4323-8918-72D3831C23A5}">
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -2831,78 +2830,78 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="20">
         <v>201294</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="20">
         <v>19</v>
       </c>
     </row>
@@ -2916,22 +2915,22 @@
       <c r="D5" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="25" t="s">
         <v>297</v>
       </c>
       <c r="I5" s="2">
         <v>201303</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K5" s="2">
@@ -2948,22 +2947,22 @@
       <c r="D6" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="25" t="s">
         <v>304</v>
       </c>
       <c r="I6" s="2">
         <v>201316</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K6" s="2">
@@ -2980,22 +2979,22 @@
       <c r="D7" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="25" t="s">
         <v>311</v>
       </c>
       <c r="I7" s="2">
         <v>201299</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K7" s="2">
@@ -3012,22 +3011,22 @@
       <c r="D8" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="25" t="s">
         <v>318</v>
       </c>
       <c r="I8" s="2">
         <v>201291</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K8" s="2">
@@ -3044,22 +3043,22 @@
       <c r="D9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="25" t="s">
         <v>325</v>
       </c>
       <c r="I9" s="2">
         <v>201290</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K9" s="2">
@@ -3076,22 +3075,22 @@
       <c r="D10" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="25" t="s">
         <v>332</v>
       </c>
       <c r="I10" s="2">
         <v>201314</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K10" s="2"/>
@@ -3106,22 +3105,22 @@
       <c r="D11" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="25" t="s">
         <v>339</v>
       </c>
       <c r="I11" s="2">
         <v>201289</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K11" s="2"/>
@@ -3136,22 +3135,22 @@
       <c r="D12" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="25" t="s">
         <v>346</v>
       </c>
       <c r="I12" s="2">
         <v>201277</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K12" s="2"/>
@@ -3166,22 +3165,22 @@
       <c r="D13" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="25" t="s">
         <v>353</v>
       </c>
       <c r="I13" s="2">
         <v>201378</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K13" s="2"/>
@@ -3196,22 +3195,22 @@
       <c r="D14" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="25" t="s">
         <v>360</v>
       </c>
       <c r="I14" s="2">
         <v>201287</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K14" s="2"/>
@@ -3226,22 +3225,22 @@
       <c r="D15" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="25" t="s">
         <v>367</v>
       </c>
       <c r="I15" s="2">
         <v>201288</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K15" s="2"/>
@@ -3256,22 +3255,22 @@
       <c r="D16" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="25" t="s">
         <v>374</v>
       </c>
       <c r="I16" s="2">
         <v>201283</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K16" s="2"/>
@@ -3286,22 +3285,22 @@
       <c r="D17" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="25" t="s">
         <v>381</v>
       </c>
       <c r="I17" s="2">
         <v>201284</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K17" s="2"/>
@@ -3316,22 +3315,22 @@
       <c r="D18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="25" t="s">
         <v>388</v>
       </c>
       <c r="I18" s="2">
         <v>201296</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K18" s="2"/>
@@ -3346,22 +3345,22 @@
       <c r="D19" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="25" t="s">
         <v>395</v>
       </c>
       <c r="I19" s="2">
         <v>201319</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K19" s="2"/>
@@ -3376,22 +3375,22 @@
       <c r="D20" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="25" t="s">
         <v>402</v>
       </c>
       <c r="I20" s="2">
         <v>201307</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K20" s="2"/>
@@ -3406,22 +3405,22 @@
       <c r="D21" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="25" t="s">
         <v>409</v>
       </c>
       <c r="I21" s="2">
         <v>201282</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="26" t="s">
         <v>290</v>
       </c>
       <c r="K21" s="2"/>
@@ -3526,10 +3525,10 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="28" t="s">
         <v>415</v>
       </c>
       <c r="G28" s="16"/>
@@ -3621,14 +3620,14 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -3784,8 +3783,8 @@
         <v>39</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -3794,8 +3793,8 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -3832,8 +3831,8 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3960,14 +3959,14 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4180,8 +4179,8 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -4190,8 +4189,8 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
@@ -4200,8 +4199,8 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
@@ -4310,13 +4309,13 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -4564,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F4BF77-8A8B-4529-A5F6-AAAA6F745083}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,11 +4595,11 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -4780,16 +4779,16 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
